--- a/esgf/euro-cordex-esgf.xlsx
+++ b/esgf/euro-cordex-esgf.xlsx
@@ -2461,7 +2461,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['clm', 'clwvi', 'clivi', 'cll', 'clh', 'va925', 'vas', 'ua925', 'uas', 'zg100', 'zg200', 'va700', 'va850', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'ua700', 'ua850', 'ua500', 'ua600', 'zg925', 'zmla', 'zg700', 'zg850', 'zg300', 'zg400', 'zg500', 'zg600', 'prw', 'rlut', 'mrros', 'mrso', 'mrfso', 'mrro', 'evspsbl', 'hus100', 'rsdt', 'rsut', 'hus850', 'hus925', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'snm', 'snw', 'snc', 'snd', 'ta925', 'ts', 'ua100', 'ua200', 'ua300', 'ua400', 'ta100', 'ta200', 'ta700', 'ta850', 'ta300', 'ta400', 'ta500', 'ta600']</t>
+          <t>['clm', 'clwvi', 'clivi', 'cll', 'clh', 'va925', 'vas', 'ua925', 'uas', 'zg100', 'zg200', 'va700', 'va850', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'ua700', 'ua850', 'ua500', 'ua600', 'zg925', 'zmla', 'zg700', 'zg850', 'zg300', 'zg400', 'zg500', 'zg600', 'snm', 'snw', 'snc', 'snd', 'ta925', 'ts', 'ua100', 'ua200', 'ua300', 'ua400', 'ta100', 'ta200', 'ta700', 'ta850', 'ta300', 'ta400', 'ta500', 'ta600', 'prw', 'rlut', 'mrros', 'mrso', 'mrfso', 'mrro', 'evspsbl', 'hus100', 'rsdt', 'rsut', 'hus850', 'hus925', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700']</t>
         </is>
       </c>
     </row>
@@ -2483,7 +2483,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'clh', 'va850', 'va925', 'vas', 'wsgsmax', 'zg100', 'zg700', 'zg850', 'zg925', 'zmla', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'prhmax', 'prsn', 'prw', 'ps', 'psl', 'snc', 'snd', 'snm', 'snw', 'sund', 'tasmax', 'tasmin', 'ts', 'ua100', 'ua200', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'va300', 'va400', 'va500', 'va600', 'va700']</t>
+          <t>['rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'prhmax', 'prsn', 'prw', 'ps', 'psl', 'snc', 'snd', 'snm', 'snw', 'sund', 'tasmax', 'tasmin', 'ts', 'ua100', 'ua200', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'clh', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'wsgsmax', 'zg100', 'zg700', 'zg850', 'zg925', 'zmla', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600']</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'clt', 'zg700', 'zg850', 'zg925', 'snd', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850']</t>
+          <t>['zg700', 'zg850', 'zg925', 'snd', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'clt']</t>
         </is>
       </c>
     </row>

--- a/esgf/euro-cordex-esgf.xlsx
+++ b/esgf/euro-cordex-esgf.xlsx
@@ -4115,7 +4115,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['rsus', 'sfcWind', 'psl', 'rlds', 'rlus', 'rsds', 'prc', 'ps', 'ts', 'sund', 'tas', 'huss', 'pr', 'cape', 'clt', 'hfss', 'hurs', 'evspsbl', 'hfls']</t>
+          <t>['cape', 'clt', 'hfss', 'hurs', 'evspsbl', 'hfls', 'rsus', 'sfcWind', 'psl', 'rlds', 'rlus', 'rsds', 'prc', 'ps', 'ts', 'sund', 'tas', 'huss', 'pr']</t>
         </is>
       </c>
     </row>
@@ -4147,7 +4147,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['clm', 'clwvi', 'clivi', 'cll', 'clh', 'va925', 'vas', 'ua925', 'uas', 'zg100', 'zg200', 'va700', 'va850', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'ua700', 'ua850', 'ua500', 'ua600', 'zg925', 'zmla', 'zg700', 'zg850', 'zg300', 'zg400', 'zg500', 'zg600', 'snm', 'snw', 'snc', 'snd', 'ta925', 'ts', 'ua100', 'ua200', 'ua300', 'ua400', 'ta100', 'ta200', 'ta700', 'ta850', 'ta300', 'ta400', 'ta500', 'ta600', 'prw', 'rlut', 'mrros', 'mrso', 'mrfso', 'mrro', 'evspsbl', 'hus100', 'rsdt', 'rsut', 'hus850', 'hus925', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700']</t>
+          <t>['va925', 'vas', 'ua925', 'uas', 'zg100', 'zg200', 'va700', 'va850', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'ua700', 'ua850', 'ua500', 'ua600', 'zg925', 'zmla', 'zg700', 'zg850', 'zg300', 'zg400', 'zg500', 'zg600', 'snm', 'snw', 'snc', 'snd', 'ta925', 'ts', 'ua100', 'ua200', 'ua300', 'ua400', 'ta100', 'ta200', 'ta700', 'ta850', 'ta300', 'ta400', 'ta500', 'ta600', 'prw', 'rlut', 'mrros', 'mrso', 'mrfso', 'mrro', 'evspsbl', 'hus100', 'rsdt', 'rsut', 'hus850', 'hus925', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'clm', 'clwvi', 'clivi', 'cll', 'clh']</t>
         </is>
       </c>
     </row>
@@ -15475,7 +15475,7 @@
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>['rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta200', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'clt', 'evspsbl', 'hfls', 'hfss']</t>
+          <t>['hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'clt', 'evspsbl', 'hfls', 'hfss', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta200', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -15507,7 +15507,7 @@
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>['mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'clt', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
+          <t>['zg200', 'zg500', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'clt', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas']</t>
         </is>
       </c>
     </row>

--- a/esgf/euro-cordex-esgf.xlsx
+++ b/esgf/euro-cordex-esgf.xlsx
@@ -4151,7 +4151,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['cape', 'hfls', 'hfss', 'clt', 'evspsbl', 'hurs', 'huss', 'rsds', 'rsus', 'rlds', 'rlus', 'sfcWind', 'sund', 'pr', 'prc', 'ps', 'psl', 'tas', 'ts']</t>
+          <t>['rsds', 'rsus', 'rlds', 'rlus', 'sfcWind', 'sund', 'pr', 'prc', 'ps', 'psl', 'tas', 'ts', 'cape', 'hfls', 'hfss', 'clt', 'evspsbl', 'hurs', 'huss']</t>
         </is>
       </c>
     </row>
@@ -4183,7 +4183,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['snd', 'snm', 'snw', 'ta100', 'ts', 'ua100', 'ua400', 'ua500', 'ua200', 'ua300', 'ta850', 'ta925', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'rsut', 'snc', 'rlut', 'rsdt', 'hus925', 'mrfso', 'mrso', 'prw', 'mrro', 'mrros', 'hus100', 'hus200', 'hus700', 'hus850', 'hus300', 'hus400', 'hus500', 'hus600', 'vas', 'zg100', 'uas', 'va100', 'zg200', 'zg300', 'va850', 'va925', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua850', 'ua925', 'ua600', 'ua700', 'zmla', 'zg850', 'zg925', 'zg400', 'zg500', 'zg600', 'zg700', 'clwvi', 'evspsbl', 'clh', 'clivi', 'cll', 'clm']</t>
+          <t>['clwvi', 'evspsbl', 'clh', 'clivi', 'cll', 'clm', 'snd', 'snm', 'snw', 'ta100', 'ts', 'ua100', 'ua400', 'ua500', 'ua200', 'ua300', 'ta850', 'ta925', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'rsut', 'snc', 'rlut', 'rsdt', 'hus925', 'mrfso', 'mrso', 'prw', 'mrro', 'mrros', 'hus100', 'hus200', 'hus700', 'hus850', 'hus300', 'hus400', 'hus500', 'hus600', 'vas', 'zg100', 'uas', 'va100', 'zg200', 'zg300', 'va850', 'va925', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua850', 'ua925', 'ua600', 'ua700', 'zmla', 'zg850', 'zg925', 'zg400', 'zg500', 'zg600', 'zg700']</t>
         </is>
       </c>
     </row>
@@ -4279,7 +4279,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'clt', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'snd', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925']</t>
+          <t>['zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'clt', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'snd', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850']</t>
         </is>
       </c>
     </row>

--- a/esgf/euro-cordex-esgf.xlsx
+++ b/esgf/euro-cordex-esgf.xlsx
@@ -8542,7 +8542,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['prhmax', 'huss', 'lwp', 'mrfso', 'prc', 'mrso', 'mrros', 'prsn', 'mrro', 'rsdscs', 'rsuscs', 'rsutcs', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'tauv', 'tauu', 'vas', 'uas', 'ts', 'rldscs', 'rluscs', 'rlutcs', 'rlds', 'rlus', 'prw', 'psl', 'ps', 'pr', 'clh', 'hfss', 'hfls', 'clwvi', 'cll', 'clm', 'evspsbl', 'clivi', 'hurs', 'clt', 'tasmax', 'tasmin', 'sfcWind', 'snm', 'snw', 'tas', 'snc', 'sic', 'snd', 'ta500', 'ta200', 'ua500', 'va925', 'zg200', 'ta925', 'va850', 'hus700', 'ua850', 'zg500', 'hus200', 'ta850', 'ua925', 'zg700', 'hus850', 'ta700', 'ua700', 'va700', 'hus500', 'hus925', 'ua200', 'va200', 'va500', 'zg850', 'zg925']</t>
+          <t>['prhmax', 'huss', 'lwp', 'mrfso', 'prc', 'mrso', 'mrros', 'prsn', 'mrro', 'rsdscs', 'rsuscs', 'rsutcs', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'tauv', 'tauu', 'vas', 'uas', 'ts', 'rldscs', 'rluscs', 'rlutcs', 'rlds', 'rlus', 'prw', 'psl', 'ps', 'pr', 'clh', 'hfss', 'hfls', 'clwvi', 'cll', 'clm', 'evspsbl', 'clivi', 'hurs', 'clt', 'tasmax', 'tasmin', 'sfcWind', 'snm', 'snw', 'tas', 'snc', 'sic', 'snd', 'ta925', 'va850', 'hus850', 'ta700', 'ua700', 'va700', 'hus200', 'ta850', 'ua925', 'zg700', 'ta500', 'ta200', 'ua500', 'va925', 'zg200', 'hus700', 'ua850', 'zg500', 'hus500', 'hus925', 'ua200', 'va200', 'va500', 'zg850', 'zg925']</t>
         </is>
       </c>
     </row>
@@ -8606,7 +8606,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['vas', 'uas', 'cdnctop', 'clh', 'cll', 'clivi', 'rldscs', 'rluscs', 'rlutcs', 'reffclwtop', 'rlds', 'rlus', 'rlut', 'psl', 'ps', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'snc', 'sic', 'snd', 'ts', 'lwp', 'mrfso', 'prc', 'mrso', 'mrros', 'prw', 'prsn', 'mrro', 'pr', 'rsdscs', 'rsuscs', 'rsutcs', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'hfss', 'hfls', 'huss', 'cltc100', 'evspsbl', 'lcod', 'icod', 'hurs', 'clt', 'cdnc700', 'cdnc200', 'hur500', 'cdnc850', 'cdnc925', 'cdnc500', 'hur700', 'hur850', 'hur200']</t>
+          <t>['vas', 'uas', 'cdnctop', 'clh', 'cll', 'clivi', 'rldscs', 'rluscs', 'rlutcs', 'reffclwtop', 'rlds', 'rlus', 'rlut', 'psl', 'ps', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'snc', 'sic', 'snd', 'ts', 'lwp', 'mrfso', 'prc', 'mrso', 'mrros', 'prw', 'prsn', 'mrro', 'pr', 'rsdscs', 'rsuscs', 'rsutcs', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'hfss', 'hfls', 'huss', 'cltc100', 'evspsbl', 'lcod', 'icod', 'hurs', 'clt', 'cdnc200', 'hur500', 'cdnc500', 'hur700', 'hur850', 'ta500', 'cdnc925', 'ta200', 'cdnc700', 'cdnc850', 'hur200', 'hus925', 'ua700', 'ua850', 'ua925', 'ta850', 'va200', 'va500', 'va925', 'ua500', 'va700', 'ta700', 'ua200', 'ta925', 'va850']</t>
         </is>
       </c>
     </row>

--- a/esgf/euro-cordex-esgf.xlsx
+++ b/esgf/euro-cordex-esgf.xlsx
@@ -8606,7 +8606,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['vas', 'uas', 'cdnctop', 'clh', 'cll', 'clivi', 'rldscs', 'rluscs', 'rlutcs', 'reffclwtop', 'rlds', 'rlus', 'rlut', 'psl', 'ps', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'snc', 'sic', 'snd', 'ts', 'lwp', 'mrfso', 'prc', 'mrso', 'mrros', 'prw', 'prsn', 'mrro', 'pr', 'rsdscs', 'rsuscs', 'rsutcs', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'hfss', 'hfls', 'huss', 'cltc100', 'evspsbl', 'lcod', 'icod', 'hurs', 'clt', 'cdnc200', 'hur500', 'cdnc500', 'hur700', 'hur850', 'ta500', 'cdnc925', 'ta200', 'cdnc700', 'cdnc850', 'hur200', 'hus925', 'ua700', 'ua850', 'ua925', 'ta850', 'va200', 'va500', 'va925', 'ua500', 'va700', 'ta700', 'ua200', 'ta925', 'va850']</t>
+          <t>['vas', 'uas', 'cdnctop', 'clh', 'cll', 'clivi', 'rldscs', 'rluscs', 'rlutcs', 'reffclwtop', 'rlds', 'rlus', 'rlut', 'psl', 'ps', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'snc', 'sic', 'snd', 'ts', 'lwp', 'mrfso', 'prc', 'mrso', 'mrros', 'prw', 'prsn', 'mrro', 'pr', 'rsdscs', 'rsuscs', 'rsutcs', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'hfss', 'hfls', 'huss', 'cltc100', 'evspsbl', 'lcod', 'icod', 'hurs', 'clt', 'cdnc200', 'hur500', 'cdnc500', 'hur700', 'hur850', 'ta500', 'cdnc925', 'ta200', 'cdnc700', 'cdnc850', 'hur200', 'hus925', 'ua700', 'ua850', 'ua925', 'ta850', 'va200', 'va500', 'va925', 'ua500', 'va700', 'ta700', 'ua200', 'ta925', 'va850', 'wap200', 'wap500']</t>
         </is>
       </c>
     </row>

--- a/esgf/euro-cordex-esgf.xlsx
+++ b/esgf/euro-cordex-esgf.xlsx
@@ -8606,7 +8606,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['vas', 'uas', 'cdnctop', 'clh', 'cll', 'clivi', 'rldscs', 'rluscs', 'rlutcs', 'reffclwtop', 'rlds', 'rlus', 'rlut', 'psl', 'ps', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'snc', 'sic', 'snd', 'ts', 'lwp', 'mrfso', 'prc', 'mrso', 'mrros', 'prw', 'prsn', 'mrro', 'pr', 'rsdscs', 'rsuscs', 'rsutcs', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'hfss', 'hfls', 'huss', 'cltc100', 'evspsbl', 'lcod', 'icod', 'hurs', 'clt', 'cdnc200', 'hur500', 'cdnc500', 'hur700', 'hur850', 'ta500', 'cdnc925', 'ta200', 'cdnc700', 'cdnc850', 'hur200', 'hus925', 'ua700', 'ua850', 'ua925', 'ta850', 'va200', 'va500', 'va925', 'ua500', 'va700', 'ta700', 'ua200', 'ta925', 'va850', 'wap200', 'wap500']</t>
+          <t>['vas', 'uas', 'cdnctop', 'clh', 'cll', 'clivi', 'rldscs', 'rluscs', 'rlutcs', 'reffclwtop', 'rlds', 'rlus', 'rlut', 'psl', 'ps', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'snc', 'sic', 'snd', 'ts', 'lwp', 'mrfso', 'prc', 'mrso', 'mrros', 'prw', 'prsn', 'mrro', 'pr', 'rsdscs', 'rsuscs', 'rsutcs', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'hfss', 'hfls', 'huss', 'cltc100', 'evspsbl', 'lcod', 'icod', 'hurs', 'clt', 'cdnc200', 'hur500', 'cdnc500', 'hur700', 'hur850', 'ta500', 'cdnc925', 'ta200', 'cdnc700', 'cdnc850', 'hur200', 'hus925', 'ua700', 'ua850', 'ua925', 'ta850', 'va200', 'va500', 'va925', 'ua500', 'va700', 'ta700', 'ua200', 'ta925', 'va850', 'wap700', 'wap200', 'wap500', 'wap850', 'wap925', 'zg200', 'zg500', 'zg700', 'zg850', 'zg925']</t>
         </is>
       </c>
     </row>

--- a/esgf/euro-cordex-esgf.xlsx
+++ b/esgf/euro-cordex-esgf.xlsx
@@ -8678,7 +8678,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['vas', 'uas', 'rsds', 'rlds', 'rsus', 'rlus', 'sfcWind', 'tas', 'psl', 'pr', 'ps', 'hfss', 'hfls', 'huss', 'prc', 'hurs', 'prsn', 'clt']</t>
+          <t>['vas', 'uas', 'rsds', 'rlds', 'rsus', 'rlus', 'sfcWind', 'tas', 'psl', 'pr', 'ps', 'hfss', 'hfls', 'huss', 'prc', 'hurs', 'prsn', 'clt', 'ua700', 'zg200', 'zg500', 'zg700', 'zg850', 'zg925', 'va700']</t>
         </is>
       </c>
     </row>
@@ -8710,7 +8710,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['clwvi', 'clh', 'cll', 'clm', 'clivi', 'rsdt', 'rsut', 'rlut', 'mrfso', 'evspsbl', 'mrso', 'mrros', 'prw', 'mrro', 'tauv', 'tauu', 'snm', 'vas', 'uas', 'snw', 'snc', 'snd', 'ts']</t>
+          <t>['clwvi', 'clh', 'cll', 'clm', 'clivi', 'rsdt', 'rsut', 'rlut', 'mrfso', 'evspsbl', 'mrso', 'mrros', 'prw', 'mrro', 'tauv', 'tauu', 'snm', 'vas', 'uas', 'snw', 'snc', 'snd', 'ts', 'hus200', 'hus500', 'hus700', 'hus850', 'hus925', 'ua200', 'ua500', 'ta200', 'ta500', 'ta700', 'ta850', 'ta925', 'ua700', 'ua850']</t>
         </is>
       </c>
     </row>

--- a/esgf/euro-cordex-esgf.xlsx
+++ b/esgf/euro-cordex-esgf.xlsx
@@ -8710,7 +8710,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['clwvi', 'clh', 'cll', 'clm', 'clivi', 'rsdt', 'rsut', 'rlut', 'mrfso', 'evspsbl', 'mrso', 'mrros', 'prw', 'mrro', 'tauv', 'tauu', 'snm', 'vas', 'uas', 'snw', 'snc', 'snd', 'ts', 'hus200', 'hus500', 'hus700', 'hus850', 'hus925', 'ua200', 'ua500', 'ta200', 'ta500', 'ta700', 'ta850', 'ta925', 'ua700', 'ua850']</t>
+          <t>['clwvi', 'clh', 'cll', 'clm', 'clivi', 'rsdt', 'rsut', 'rlut', 'mrfso', 'evspsbl', 'mrso', 'mrros', 'prw', 'mrro', 'tauv', 'tauu', 'snm', 'vas', 'uas', 'snw', 'snc', 'snd', 'ts', 'hus200', 'hus500', 'hus700', 'hus850', 'hus925', 'ua200', 'ua500', 'ta200', 'ta500', 'ta700', 'ta850', 'ta925', 'zg200', 'va500', 'va200', 'va700', 'va850', 'va925', 'ua700', 'ua850', 'ua925', 'zg500', 'zg700', 'zg850', 'zg925']</t>
         </is>
       </c>
     </row>

--- a/esgf/euro-cordex-esgf.xlsx
+++ b/esgf/euro-cordex-esgf.xlsx
@@ -8742,7 +8742,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'huss', 'lwp', 'mrfso', 'mrso', 'mrros', 'hurs', 'mrro', 'rsutcs', 'sfcWindmax', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'sic', 'snd', 'rldscs', 'prhmax', 'rlds', 'prc', 'prw', 'psl', 'prsn', 'ps', 'pr', 'clwvi', 'clh', 'cll', 'clm', 'evspsbl', 'clivi', 'clt', 'tauv', 'tasmax', 'tasmin', 'tauu', 'vas', 'uas', 'tas', 'ts', 'rsdscs', 'rsuscs', 'rluscs', 'rlutcs', 'rsds', 'rsus', 'rlus', 'rsdt', 'rlut']</t>
+          <t>['hfss', 'hfls', 'huss', 'lwp', 'mrfso', 'mrso', 'mrros', 'hurs', 'mrro', 'rsutcs', 'sfcWindmax', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'sic', 'snd', 'rldscs', 'prhmax', 'rlds', 'prc', 'prw', 'psl', 'prsn', 'ps', 'pr', 'clwvi', 'clh', 'cll', 'clm', 'evspsbl', 'clivi', 'clt', 'tauv', 'tasmax', 'tasmin', 'tauu', 'vas', 'uas', 'tas', 'ts', 'rsdscs', 'rsuscs', 'rluscs', 'rlutcs', 'rsds', 'rsus', 'rlus', 'rsdt', 'rlut', 'hus200', 'hus500', 'hus700', 'hus850', 'hus925', 'ua200', 'ua500', 'ua700', 'ta200', 'ta500', 'ta700', 'ta850', 'ta925', 'zg700', 'zg500', 'zg200', 'va500', 'va200', 'va700', 'va850', 'va925', 'ua850', 'ua925', 'zg925', 'zg850']</t>
         </is>
       </c>
     </row>
@@ -8806,7 +8806,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['huss', 'lwp', 'mrfso', 'mrso', 'lcod', 'mrros', 'icod', 'hurs', 'mrro', 'rldscs', 'reffclwtop', 'rlds', 'prc', 'prw', 'psl', 'prsn', 'ps', 'pr', 'tasmax', 'tasmin', 'vas', 'uas', 'tas', 'ts', 'rsdscs', 'rsuscs', 'rluscs', 'rlutcs', 'rsds', 'rsus', 'rlus', 'rsdt', 'rlut', 'cdnctop', 'hfss', 'hfls', 'cltc100', 'clh', 'cll', 'evspsbl', 'clivi', 'clt', 'rsutcs', 'sfcWindmax', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'sic', 'snd']</t>
+          <t>['huss', 'lwp', 'mrfso', 'mrso', 'lcod', 'mrros', 'icod', 'hurs', 'mrro', 'rldscs', 'reffclwtop', 'rlds', 'prc', 'prw', 'psl', 'prsn', 'ps', 'pr', 'tasmax', 'tasmin', 'vas', 'uas', 'tas', 'ts', 'rsdscs', 'rsuscs', 'rluscs', 'rlutcs', 'rsds', 'rsus', 'rlus', 'rsdt', 'rlut', 'cdnctop', 'hfss', 'hfls', 'cltc100', 'clh', 'cll', 'evspsbl', 'clivi', 'clt', 'rsutcs', 'sfcWindmax', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'sic', 'snd', 'cdnc200', 'cdnc500', 'cdnc700', 'cdnc850', 'cdnc925', 'hur200', 'hur500', 'hus200', 'hus500', 'hus700', 'hus850', 'hus925', 'hur850', 'hur700', 'hur925', 'ta200', 'ua200', 'ua500', 'ua700', 'ua850', 'ua925', 'ta500', 'ta700', 'ta850', 'ta925', 'wap700', 'wap200', 'wap500', 'wap850', 'va500', 'va200', 'va700', 'va850', 'va925', 'wap925', 'zg200', 'zg500', 'zg700', 'zg850', 'zg925']</t>
         </is>
       </c>
     </row>
@@ -33106,7 +33106,7 @@
       </c>
       <c r="J1001" t="inlineStr">
         <is>
-          <t>['uas', 'ua200', 'ua500', 'ua850', 'ta500', 'ta850', 'tasmax', 'tasmin', 'tas', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'sfcWind', 'ta200', 'rsus', 'rsdt', 'rsut', 'snm', 'snw', 'sic', 'hus850', 'hfss', 'hfls', 'mrfso', 'evspsbl', 'huss', 'hurs', 'clt', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
+          <t>['vas', 'zg200', 'zg500', 'va200', 'va500', 'va850', 'uas', 'ua200', 'ua500', 'ua850', 'ta500', 'ta850', 'tasmax', 'tasmin', 'tas', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'sfcWind', 'ta200', 'rsus', 'rsdt', 'rsut', 'snm', 'snw', 'sic', 'hus850', 'hfss', 'hfls', 'mrfso', 'evspsbl', 'huss', 'hurs', 'clt']</t>
         </is>
       </c>
     </row>

--- a/esgf/euro-cordex-esgf.xlsx
+++ b/esgf/euro-cordex-esgf.xlsx
@@ -8806,7 +8806,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['huss', 'lwp', 'mrfso', 'mrso', 'lcod', 'mrros', 'icod', 'hurs', 'mrro', 'rldscs', 'reffclwtop', 'rlds', 'prc', 'prw', 'psl', 'prsn', 'ps', 'pr', 'tasmax', 'tasmin', 'vas', 'uas', 'tas', 'ts', 'rsdscs', 'rsuscs', 'rluscs', 'rlutcs', 'rsds', 'rsus', 'rlus', 'rsdt', 'rlut', 'cdnctop', 'hfss', 'hfls', 'cltc100', 'clh', 'cll', 'evspsbl', 'clivi', 'clt', 'rsutcs', 'sfcWindmax', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'sic', 'snd', 'cdnc200', 'cdnc500', 'cdnc700', 'cdnc850', 'cdnc925', 'hur200', 'hur500', 'hus200', 'hus500', 'hus700', 'hus850', 'hus925', 'hur850', 'hur700', 'hur925', 'ta200', 'ua200', 'ua500', 'ua700', 'ua850', 'ua925', 'ta500', 'ta700', 'ta850', 'ta925', 'wap700', 'wap200', 'wap500', 'wap850', 'va500', 'va200', 'va700', 'va850', 'va925', 'wap925', 'zg200', 'zg500', 'zg700', 'zg850', 'zg925']</t>
+          <t>['huss', 'lwp', 'mrfso', 'mrso', 'lcod', 'mrros', 'icod', 'hurs', 'mrro', 'rldscs', 'reffclwtop', 'rlds', 'prc', 'prw', 'psl', 'prsn', 'ps', 'pr', 'tasmax', 'tasmin', 'vas', 'uas', 'tas', 'ts', 'rsdscs', 'rsuscs', 'rluscs', 'rlutcs', 'rsds', 'rsus', 'rlus', 'rsdt', 'rlut', 'cdnctop', 'hfss', 'hfls', 'cltc100', 'clh', 'cll', 'evspsbl', 'clivi', 'clt', 'rsutcs', 'sfcWindmax', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'sic', 'snd', 'wap925', 'zg200', 'zg500', 'zg700', 'zg850', 'zg925', 'cdnc200', 'cdnc500', 'cdnc700', 'cdnc850', 'cdnc925', 'hur200', 'hur500', 'hus200', 'hus500', 'hus700', 'hus850', 'hus925', 'hur850', 'hur700', 'hur925', 'ta200', 'ua200', 'ua500', 'ua700', 'ua850', 'ua925', 'ta500', 'ta700', 'ta850', 'ta925', 'wap700', 'wap200', 'wap500', 'wap850', 'va500', 'va200', 'va700', 'va850', 'va925']</t>
         </is>
       </c>
     </row>

--- a/esgf/euro-cordex-esgf.xlsx
+++ b/esgf/euro-cordex-esgf.xlsx
@@ -12310,7 +12310,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>['psl', 'pr', 'hfss', 'hfls', 'rsus', 'tas', 'rlds', 'rsds', 'rlus', 'huss', 'sfcWind', 'hurs', 'ps']</t>
+          <t>['psl', 'pr', 'hfss', 'hfls', 'rsus', 'tas', 'rlds', 'rlus', 'huss', 'sfcWind', 'hurs', 'ps']</t>
         </is>
       </c>
     </row>
@@ -16598,7 +16598,7 @@
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>['pr', 'rsds', 'rlus', 'huss', 'sfcWind', 'tas', 'hurs', 'psl', 'hfls', 'hfss', 'rsus', 'ps', 'rlds']</t>
+          <t>['pr', 'rsds', 'rlus', 'huss', 'sfcWind', 'tas', 'hurs', 'psl', 'hfss', 'rsus', 'ps', 'rlds']</t>
         </is>
       </c>
     </row>

--- a/esgf/euro-cordex-esgf.xlsx
+++ b/esgf/euro-cordex-esgf.xlsx
@@ -27274,7 +27274,7 @@
       </c>
       <c r="J825" t="inlineStr">
         <is>
-          <t>['zg850', 'sfcWindmax', 'sic', 'snc', 'vas', 'zg200', 'zg500', 'ua500', 'ua850', 'uas', 'ta200', 'ta500', 'ta850', 'ts', 'ua200', 'tas', 'tasmax', 'tasmin', 'va200', 'va500', 'va850', 'snm', 'snw', 'hfls', 'hfss', 'hurs', 'rsus', 'rsut', 'sfcWind', 'mrros', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'prc', 'prsn', 'ps', 'hus850', 'huss', 'mrro']</t>
+          <t>['hfls', 'hfss', 'hurs', 'rsus', 'rsut', 'sfcWind', 'mrros', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'prc', 'prsn', 'ps', 'hus850', 'huss', 'mrro', 'zg850', 'sfcWindmax', 'sic', 'snc', 'vas', 'zg200', 'zg500', 'ua500', 'ua850', 'uas', 'ta200', 'ta500', 'ta850', 'ts', 'ua200', 'tas', 'tasmax', 'tasmin', 'va200', 'va500', 'va850', 'snm', 'snw']</t>
         </is>
       </c>
     </row>

--- a/esgf/euro-cordex-esgf.xlsx
+++ b/esgf/euro-cordex-esgf.xlsx
@@ -3946,7 +3946,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'va850', 'va925', 'zmla', 'zg700', 'zg850', 'zg925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua925', 'ta600', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta700', 'ta850', 'ta925', 'clwvi', 'clh', 'evspsbl', 'clivi', 'cll', 'clm', 'hus100', 'hus200', 'hus300', 'mrfso', 'mrros', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'ua200', 'ua100', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ts', 'rsdt', 'rsut', 'rlut', 'mrso', 'prw', 'snm', 'snw', 'snc', 'snd']</t>
+          <t>['clwvi', 'clh', 'evspsbl', 'clivi', 'cll', 'clm', 'hus100', 'hus200', 'hus300', 'ta600', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta700', 'ta850', 'ta925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'va850', 'va925', 'zmla', 'zg700', 'zg850', 'zg925', 'ua200', 'ua100', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ts', 'rsdt', 'rsut', 'rlut', 'mrso', 'prw', 'snm', 'snw', 'snc', 'snd', 'mrfso', 'mrros', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua925']</t>
         </is>
       </c>
     </row>
@@ -3978,7 +3978,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['clh', 'hfls', 'hfss', 'clt', 'clwvi', 'cll', 'clm', 'clivi', 'evspsbl', 'zg925', 'zmla', 'zg100', 'zg200', 'zg700', 'zg850', 'zg300', 'zg400', 'zg500', 'zg600', 'vas', 'wsgsmax', 'uas', 'va100', 'va850', 'va925', 'va400', 'va500', 'va600', 'va700', 'ua850', 'ua925', 'ua600', 'ua700', 'va200', 'va300', 'mrros', 'mrso', 'mrfso', 'mrro', 'hurs', 'hus100', 'pr', 'prc', 'hus925', 'huss', 'hus700', 'hus850', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'snc', 'snd', 'snm', 'rlut', 'rsds', 'rsdt', 'psl', 'rlds', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'prhmax', 'prsn', 'prw', 'ps', 'rlus', 'tasmax', 'tasmin', 'ts', 'ta850', 'ta925', 'tas', 'ua100', 'ua200', 'ua300', 'ta300', 'ta400', 'ta500', 'snw', 'sund', 'ua400', 'ua500', 'ta100', 'ta200', 'ta600', 'ta700']</t>
+          <t>['mrros', 'mrso', 'mrfso', 'mrro', 'hurs', 'hus100', 'pr', 'prc', 'hus925', 'huss', 'hus700', 'hus850', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'vas', 'wsgsmax', 'uas', 'va100', 'va850', 'va925', 'va400', 'va500', 'va600', 'va700', 'ua850', 'ua925', 'ua600', 'ua700', 'va200', 'va300', 'clh', 'hfls', 'hfss', 'clt', 'clwvi', 'cll', 'clm', 'clivi', 'evspsbl', 'tasmax', 'tasmin', 'ts', 'ta850', 'ta925', 'tas', 'ua100', 'ua200', 'ua300', 'ta300', 'ta400', 'ta500', 'snw', 'sund', 'ua400', 'ua500', 'ta100', 'ta200', 'ta600', 'ta700', 'snc', 'snd', 'snm', 'rlut', 'rsds', 'rsdt', 'psl', 'rlds', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'prhmax', 'prsn', 'prw', 'ps', 'rlus', 'zg925', 'zmla', 'zg100', 'zg200', 'zg700', 'zg850', 'zg300', 'zg400', 'zg500', 'zg600']</t>
         </is>
       </c>
     </row>
@@ -4010,7 +4010,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['tas', 'tasmax', 'tasmin', 'ua100', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'va600', 'va700', 'va850', 'ta700', 'ta850', 'ta925', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'clt', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'hus600', 'hus700', 'hus850', 'hfls', 'hfss', 'hus400', 'hus500', 'pr', 'psl', 'rlds', 'rlus', 'snd', 'snm', 'snw', 'sund', 'rsus', 'rsut', 'sfcWind', 'rlut', 'rsds', 'rsdt', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'sfcWindmax', 'snc']</t>
+          <t>['tas', 'tasmax', 'tasmin', 'ua100', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'va600', 'va700', 'va850', 'ta700', 'ta850', 'ta925', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'pr', 'psl', 'rlds', 'rlus', 'snd', 'snm', 'snw', 'sund', 'rsus', 'rsut', 'sfcWind', 'rlut', 'rsds', 'rsdt', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'sfcWindmax', 'snc', 'clt', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'hus600', 'hus700', 'hus850', 'hfls', 'hfss', 'hus400', 'hus500']</t>
         </is>
       </c>
     </row>
@@ -4042,7 +4042,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['hus925', 'huss', 'mrfso', 'mrro', 'clt', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus600', 'hus700', 'hus850', 'hfls', 'hfss', 'mrros', 'mrso', 'hus300', 'hus400', 'hus500', 'ua700', 'ua850', 'ua925', 'uas', 'zg600', 'zg700', 'zg850', 'zg925', 'ua300', 'ua400', 'ua500', 'ua600', 'zg100', 'zg200', 'zg300', 'va600', 'va700', 'va850', 'va100', 'va200', 'va300', 'va925', 'vas', 'zg400', 'zg500', 'va400', 'va500', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'rlus', 'rlut', 'rsds', 'rsdt', 'snc', 'snd', 'snm', 'snw', 'ta850', 'ta925', 'tas', 'tasmax', 'ta400', 'ta500', 'ta600', 'ta700', 'pr', 'psl', 'rlds', 'tasmin', 'ua100', 'ua200', 'ta100', 'ta200', 'ta300', 'sund']</t>
+          <t>['rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'rlus', 'rlut', 'rsds', 'rsdt', 'snc', 'snd', 'snm', 'snw', 'ta850', 'ta925', 'tas', 'tasmax', 'ta400', 'ta500', 'ta600', 'ta700', 'pr', 'psl', 'rlds', 'tasmin', 'ua100', 'ua200', 'ta100', 'ta200', 'ta300', 'sund', 'ua700', 'ua850', 'ua925', 'uas', 'zg600', 'zg700', 'zg850', 'zg925', 'ua300', 'ua400', 'ua500', 'ua600', 'zg100', 'zg200', 'zg300', 'va600', 'va700', 'va850', 'va100', 'va200', 'va300', 'va925', 'vas', 'zg400', 'zg500', 'va400', 'va500', 'hus925', 'huss', 'mrfso', 'mrro', 'clt', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus600', 'hus700', 'hus850', 'hfls', 'hfss', 'mrros', 'mrso', 'hus300', 'hus400', 'hus500']</t>
         </is>
       </c>
     </row>
@@ -17590,7 +17590,7 @@
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>['hfls', 'hfss', 'hurs', 'huss', 'pr', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
+          <t>['tas', 'hfls', 'hfss', 'hurs', 'huss', 'pr', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind']</t>
         </is>
       </c>
     </row>

--- a/esgf/euro-cordex-esgf.xlsx
+++ b/esgf/euro-cordex-esgf.xlsx
@@ -9454,7 +9454,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['pr']</t>
+          <t>['pr', 'ua100m', 'va100m']</t>
         </is>
       </c>
     </row>
@@ -9486,7 +9486,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'clt', 'huss', 'ps', 'prsn', 'rlds', 'rlus', 'prc', 'hurs', 'psl', 'pr', 'rsds', 'sfcWind', 'vas', 'rsus', 'uas', 'tas']</t>
+          <t>['hfss', 'hfls', 'clt', 'huss', 'ps', 'prsn', 'rlds', 'rlus', 'prc', 'hurs', 'psl', 'pr', 'rsds', 'sfcWind', 'vas', 'rsus', 'uas', 'tas', 'ua50m', 'ua250m', 'va700', 'va50m', 'hus50m', 'ta50m', 'ua100m', 'ua700', 'va100m', 'zg150m', 'zg100m', 'ua200m', 'ua150m', 'va150m', 'va200m', 'va250m', 'zg200', 'zg200m', 'zg250m', 'zg50m', 'zg700', 'zg500', 'zg850', 'zg925']</t>
         </is>
       </c>
     </row>
@@ -27274,7 +27274,7 @@
       </c>
       <c r="J825" t="inlineStr">
         <is>
-          <t>['hfls', 'hfss', 'hurs', 'rsus', 'rsut', 'sfcWind', 'mrros', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'prc', 'prsn', 'ps', 'hus850', 'huss', 'mrro', 'zg850', 'sfcWindmax', 'sic', 'snc', 'vas', 'zg200', 'zg500', 'ua500', 'ua850', 'uas', 'ta200', 'ta500', 'ta850', 'ts', 'ua200', 'tas', 'tasmax', 'tasmin', 'va200', 'va500', 'va850', 'snm', 'snw']</t>
+          <t>['zg850', 'sfcWindmax', 'sic', 'snc', 'vas', 'zg200', 'zg500', 'ua500', 'ua850', 'uas', 'ta200', 'ta500', 'ta850', 'ts', 'ua200', 'tas', 'tasmax', 'tasmin', 'va200', 'va500', 'va850', 'snm', 'snw', 'hfls', 'hfss', 'hurs', 'rsus', 'rsut', 'sfcWind', 'mrros', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'prc', 'prsn', 'ps', 'hus850', 'huss', 'mrro']</t>
         </is>
       </c>
     </row>
@@ -27314,7 +27314,7 @@
       </c>
       <c r="J826" t="inlineStr">
         <is>
-          <t>['tasmax', 'tasmin', 'zg200', 'zg500', 'zg850', 'ua850', 'uas', 'va200', 'ts', 'ua200', 'ua500', 'va500', 'va850', 'vas', 'rlut', 'rsds', 'rsdt', 'sfcWindmax', 'sic', 'snc', 'mrro', 'mrros', 'pr', 'psl', 'rlds', 'rlus', 'rsus', 'rsut', 'sfcWind', 'prc', 'prsn', 'ps', 'snm', 'snw', 'ta200', 'hurs', 'hus850', 'huss', 'ta500', 'ta850', 'tas', 'hfls', 'hfss']</t>
+          <t>['hfls', 'hfss', 'rlut', 'rsds', 'rsdt', 'sfcWindmax', 'sic', 'snc', 'mrro', 'mrros', 'pr', 'psl', 'rlds', 'rlus', 'rsus', 'rsut', 'sfcWind', 'prc', 'prsn', 'ps', 'snm', 'snw', 'ta200', 'hurs', 'hus850', 'huss', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'zg200', 'zg500', 'zg850', 'ua850', 'uas', 'va200', 'ts', 'ua200', 'ua500', 'va500', 'va850', 'vas']</t>
         </is>
       </c>
     </row>

--- a/esgf/euro-cordex-esgf.xlsx
+++ b/esgf/euro-cordex-esgf.xlsx
@@ -9546,7 +9546,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>['clh', 'clivi', 'clwvi', 'cll', 'clm', 'evspsbl', 'mrfso', 'mrros', 'mrso', 'prw', 'mrro', 'tauv', 'tauu', 'rsdt', 'rsut', 'rlut', 'snm', 'snw', 'snc', 'snd', 'vas', 'uas', 'ts']</t>
+          <t>['clh', 'clivi', 'clwvi', 'cll', 'clm', 'evspsbl', 'mrfso', 'mrros', 'mrso', 'prw', 'mrro', 'tauv', 'tauu', 'rsdt', 'rsut', 'rlut', 'snm', 'snw', 'snc', 'snd', 'vas', 'uas', 'ts', 'hus200', 'ua850', 'ua700', 'ua500', 'hus925', 'ta200', 'hus850', 'ta500', 'ta700', 'ta850', 'ta925', 'ua200', 'va500', 'hus700', 'hus500', 'va200', 'ua925', 'va850', 'va700', 'va925', 'zg500', 'zg200', 'zg700', 'zg925', 'zg850']</t>
         </is>
       </c>
     </row>
@@ -9606,7 +9606,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['prhmax', 'mrfso', 'mrso', 'prc', 'prw', 'mrros', 'prsn', 'mrro', 'pr', 'rsuscs', 'rsutcs', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'sic', 'tauv', 'tasmax', 'tasmin', 'tauu', 'snm', 'snw', 'tas', 'snc', 'snd', 'clh', 'cll', 'clivi', 'hfss', 'hfls', 'clwvi', 'huss', 'lwp', 'clm', 'evspsbl', 'hurs', 'clt', 'rsdscs', 'rldscs', 'rluscs', 'rlutcs', 'rlds', 'rlus', 'rlut', 'psl', 'ps', 'vas', 'uas', 'ts']</t>
+          <t>['prhmax', 'mrfso', 'mrso', 'prc', 'prw', 'mrros', 'prsn', 'mrro', 'pr', 'rsuscs', 'rsutcs', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'sic', 'tauv', 'tasmax', 'tasmin', 'tauu', 'snm', 'snw', 'tas', 'snc', 'snd', 'clh', 'cll', 'clivi', 'hfss', 'hfls', 'clwvi', 'huss', 'lwp', 'clm', 'evspsbl', 'hurs', 'clt', 'rsdscs', 'rldscs', 'rluscs', 'rlutcs', 'rlds', 'rlus', 'rlut', 'psl', 'ps', 'vas', 'uas', 'ts', 'hus850', 'va925', 'zg500', 'zg700', 'zg200', 'hus200', 'hus500', 'zg925', 'zg850', 'ta200', 'hus925', 'ta925', 'ta850', 'hus700', 'va850', 'va700', 'va200', 'va500', 'ua850', 'ua925', 'ua700', 'ta500', 'ta700', 'ua200', 'ua500']</t>
         </is>
       </c>
     </row>
@@ -9670,7 +9670,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['cdnctop', 'hfss', 'hfls', 'cltc100', 'clh', 'cll', 'evspsbl', 'clivi', 'clt', 'rsdscs', 'rsuscs', 'rluscs', 'rlutcs', 'rsds', 'rsus', 'rlus', 'rsdt', 'rlut', 'rsutcs', 'sfcWindmax', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'sic', 'snd', 'huss', 'lwp', 'mrfso', 'mrso', 'lcod', 'mrros', 'hurs', 'icod', 'mrro', 'rldscs', 'reffclwtop', 'rlds', 'prc', 'prw', 'psl', 'prsn', 'ps', 'pr', 'tasmax', 'tasmin', 'vas', 'uas', 'tas', 'ts']</t>
+          <t>['cdnctop', 'hfss', 'hfls', 'cltc100', 'clh', 'cll', 'evspsbl', 'clivi', 'clt', 'rsdscs', 'rsuscs', 'rluscs', 'rlutcs', 'rsds', 'rsus', 'rlus', 'rsdt', 'rlut', 'rsutcs', 'sfcWindmax', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'sic', 'snd', 'huss', 'lwp', 'mrfso', 'mrso', 'lcod', 'mrros', 'hurs', 'icod', 'mrro', 'rldscs', 'reffclwtop', 'rlds', 'prc', 'prw', 'psl', 'prsn', 'ps', 'pr', 'tasmax', 'tasmin', 'vas', 'uas', 'tas', 'ts', 'cdnc850', 'ua925', 'ua850', 'ta925', 'ta850', 'va700', 'va500', 'ta700', 'ta200', 'ta500', 'va200', 'hur500', 'hur700', 'hus200', 'hus500', 'cdnc200', 'cdnc500', 'cdnc700', 'ua700', 'ua500', 'ua200', 'wap925', 'hur200', 'cdnc925', 'wap850', 'wap700', 'hur850', 'hur925', 'wap500', 'va925', 'wap200', 'va850', 'zg850', 'zg925', 'hus925', 'hus700', 'hus850', 'zg200', 'zg700', 'zg500']</t>
         </is>
       </c>
     </row>

--- a/esgf/euro-cordex-esgf.xlsx
+++ b/esgf/euro-cordex-esgf.xlsx
@@ -24474,7 +24474,7 @@
       </c>
       <c r="J744" t="inlineStr">
         <is>
-          <t>['hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'ua100m', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'ts', 'vas', 'zg850', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg925', 'clwvi', 'clh', 'cll', 'clm', 'clivi', 'clt', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'va100m', 'rsdt', 'rlut', 'mrso', 'prw', 'mrros', 'snm', 'snw', 'psl', 'ta200', 'zmla', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas']</t>
+          <t>['hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'ua100m', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'ts', 'vas', 'clwvi', 'clh', 'cll', 'clm', 'clivi', 'clt', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'va100m', 'rsdt', 'rlut', 'mrso', 'prw', 'mrros', 'snm', 'snw', 'psl', 'ta200', 'zmla', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'zg925', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850']</t>
         </is>
       </c>
     </row>
@@ -25790,7 +25790,7 @@
       </c>
       <c r="J783" t="inlineStr">
         <is>
-          <t>['va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua850', 'ua925', 'uas', 'zmla', 'zg850', 'zg925', 'snw', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'clh', 'clivi', 'tauv', 'tauu', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ts', 'clwvi', 'cll', 'clm', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'rsdt', 'rlut', 'mrso', 'prw', 'mrros', 'snm', 'hus850', 'hus925', 'mrro']</t>
+          <t>['va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua850', 'ua925', 'uas', 'zmla', 'snw', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'va850', 'va925', 'vas', 'clh', 'clivi', 'tauv', 'tauu', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ts', 'clwvi', 'cll', 'clm', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'rsdt', 'rlut', 'mrso', 'prw', 'mrros', 'snm', 'hus850', 'hus925', 'mrro', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925']</t>
         </is>
       </c>
     </row>
@@ -25990,7 +25990,7 @@
       </c>
       <c r="J789" t="inlineStr">
         <is>
-          <t>['clwvi', 'clh', 'clivi', 'cll', 'clm', 'hus200', 'hus300', 'zmla', 'zg400', 'zg500', 'zg600', 'zg850', 'zg925', 'zg700', 'tauv', 'tauu', 'ua200', 'ua300', 'ta600', 'ta700', 'ta850', 'ta925', 'ts', 'rsdt', 'rlut', 'prw', 'snm', 'snw', 'ta200', 'ta300', 'ta400', 'ta500', 'vas', 'zg200', 'zg300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'uas', 'va200', 'va300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'mrso', 'mrros', 'hus500', 'hus400', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro']</t>
+          <t>['clwvi', 'clh', 'clivi', 'cll', 'clm', 'hus200', 'hus300', 'zmla', 'tauv', 'tauu', 'ua200', 'ua300', 'ta600', 'ta700', 'ta850', 'ta925', 'ts', 'rsdt', 'rlut', 'prw', 'snm', 'snw', 'ta200', 'ta300', 'ta400', 'ta500', 'vas', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'uas', 'va200', 'va300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'mrso', 'mrros', 'hus500', 'hus400', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925']</t>
         </is>
       </c>
     </row>

--- a/esgf/euro-cordex-esgf.xlsx
+++ b/esgf/euro-cordex-esgf.xlsx
@@ -9606,7 +9606,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['prhmax', 'mrfso', 'mrso', 'prc', 'prw', 'mrros', 'prsn', 'mrro', 'pr', 'rsuscs', 'rsutcs', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'sic', 'tauv', 'tasmax', 'tasmin', 'tauu', 'snm', 'snw', 'tas', 'snc', 'snd', 'clh', 'cll', 'clivi', 'hfss', 'hfls', 'clwvi', 'huss', 'lwp', 'clm', 'evspsbl', 'hurs', 'clt', 'rsdscs', 'rldscs', 'rluscs', 'rlutcs', 'rlds', 'rlus', 'rlut', 'psl', 'ps', 'vas', 'uas', 'ts', 'hus850', 'va925', 'zg500', 'zg700', 'zg200', 'hus200', 'hus500', 'zg925', 'zg850', 'ta200', 'hus925', 'ta925', 'ta850', 'hus700', 'va850', 'va700', 'va200', 'va500', 'ua850', 'ua925', 'ua700', 'ta500', 'ta700', 'ua200', 'ua500']</t>
+          <t>['prhmax', 'mrfso', 'mrso', 'prc', 'prw', 'mrros', 'prsn', 'mrro', 'pr', 'rsuscs', 'rsutcs', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'sic', 'tauv', 'tasmax', 'tasmin', 'tauu', 'snm', 'snw', 'tas', 'snc', 'snd', 'clh', 'cll', 'clivi', 'hfss', 'hfls', 'clwvi', 'huss', 'lwp', 'clm', 'evspsbl', 'hurs', 'clt', 'rsdscs', 'rldscs', 'rluscs', 'rlutcs', 'rlds', 'rlus', 'rlut', 'psl', 'ps', 'vas', 'uas', 'ts', 'va925', 'zg500', 'zg700', 'zg200', 'ua850', 'ua925', 'ua700', 'hus700', 'va850', 'va700', 'va200', 'va500', 'ta200', 'hus925', 'ta925', 'ta850', 'hus200', 'hus500', 'zg925', 'zg850', 'hus850', 'ta500', 'ta700', 'ua200', 'ua500']</t>
         </is>
       </c>
     </row>
@@ -9670,7 +9670,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['cdnctop', 'hfss', 'hfls', 'cltc100', 'clh', 'cll', 'evspsbl', 'clivi', 'clt', 'rsdscs', 'rsuscs', 'rluscs', 'rlutcs', 'rsds', 'rsus', 'rlus', 'rsdt', 'rlut', 'rsutcs', 'sfcWindmax', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'sic', 'snd', 'huss', 'lwp', 'mrfso', 'mrso', 'lcod', 'mrros', 'hurs', 'icod', 'mrro', 'rldscs', 'reffclwtop', 'rlds', 'prc', 'prw', 'psl', 'prsn', 'ps', 'pr', 'tasmax', 'tasmin', 'vas', 'uas', 'tas', 'ts', 'cdnc850', 'ua925', 'ua850', 'ta925', 'ta850', 'va700', 'va500', 'ta700', 'ta200', 'ta500', 'va200', 'hur500', 'hur700', 'hus200', 'hus500', 'cdnc200', 'cdnc500', 'cdnc700', 'ua700', 'ua500', 'ua200', 'wap925', 'hur200', 'cdnc925', 'wap850', 'wap700', 'hur850', 'hur925', 'wap500', 'va925', 'wap200', 'va850', 'zg850', 'zg925', 'hus925', 'hus700', 'hus850', 'zg200', 'zg700', 'zg500']</t>
+          <t>['cdnctop', 'hfss', 'hfls', 'cltc100', 'clh', 'cll', 'evspsbl', 'clivi', 'clt', 'rsdscs', 'rsuscs', 'rluscs', 'rlutcs', 'rsds', 'rsus', 'rlus', 'rsdt', 'rlut', 'rsutcs', 'sfcWindmax', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'sic', 'snd', 'huss', 'lwp', 'mrfso', 'mrso', 'lcod', 'mrros', 'hurs', 'icod', 'mrro', 'rldscs', 'reffclwtop', 'rlds', 'prc', 'prw', 'psl', 'prsn', 'ps', 'pr', 'tasmax', 'tasmin', 'vas', 'uas', 'tas', 'ts', 'ta925', 'ta850', 'va700', 'va500', 'hur850', 'hur925', 'wap500', 'va925', 'wap200', 'va850', 'zg850', 'zg925', 'hur200', 'cdnc925', 'wap850', 'wap700', 'cdnc200', 'cdnc500', 'cdnc700', 'ua700', 'ua500', 'ua200', 'wap925', 'hur500', 'hur700', 'hus200', 'hus500', 'ta700', 'ta200', 'ta500', 'va200', 'cdnc850', 'ua925', 'ua850', 'hus925', 'hus700', 'hus850', 'zg200', 'zg700', 'zg500']</t>
         </is>
       </c>
     </row>

--- a/esgf/euro-cordex-esgf.xlsx
+++ b/esgf/euro-cordex-esgf.xlsx
@@ -9710,7 +9710,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>['pr']</t>
+          <t>['pr', 'ua100m', 'va100m']</t>
         </is>
       </c>
     </row>
@@ -9742,7 +9742,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['sfcWind', 'vas', 'uas', 'tas', 'hfss', 'hfls', 'huss', 'hurs', 'clt', 'rsds', 'rlds', 'rsus', 'rlus', 'prc', 'prsn', 'psl', 'pr', 'ps']</t>
+          <t>['sfcWind', 'vas', 'uas', 'tas', 'hfss', 'hfls', 'huss', 'hurs', 'clt', 'rsds', 'rlds', 'rsus', 'rlus', 'prc', 'prsn', 'psl', 'pr', 'ps', 'hus50m', 'ta50m', 'ua100m', 'ua150m', 'ua200m']</t>
         </is>
       </c>
     </row>
@@ -9774,7 +9774,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>['clh', 'clivi', 'clwvi', 'mrfso', 'cll', 'clm', 'evspsbl', 'mrso', 'mrros', 'prw', 'mrro', 'vas', 'uas', 'ts', 'tauv', 'tauu', 'rsdt', 'rsut', 'rlut', 'snm', 'snw', 'snc', 'snd']</t>
+          <t>['clh', 'clivi', 'clwvi', 'mrfso', 'cll', 'clm', 'evspsbl', 'mrso', 'mrros', 'prw', 'mrro', 'vas', 'uas', 'ts', 'tauv', 'tauu', 'rsdt', 'rsut', 'rlut', 'snm', 'snw', 'snc', 'snd', 'va200', 'ua200', 'ua500', 'ua700', 'ua850', 'ua925', 'ta700', 'ta850', 'ta925', 'zg200', 'zg500', 'zg700', 'zg850', 'zg925', 'va500', 'va700', 'va850', 'va925', 'hus200', 'hus500', 'hus700', 'hus850', 'hus925', 'ta200', 'ta500']</t>
         </is>
       </c>
     </row>

--- a/esgf/euro-cordex-esgf.xlsx
+++ b/esgf/euro-cordex-esgf.xlsx
@@ -9710,7 +9710,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>['pr', 'ua100m', 'va100m']</t>
+          <t>['pr', 'va100m', 'ua100m']</t>
         </is>
       </c>
     </row>
@@ -9742,7 +9742,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['sfcWind', 'vas', 'uas', 'tas', 'hfss', 'hfls', 'huss', 'hurs', 'clt', 'rsds', 'rlds', 'rsus', 'rlus', 'prc', 'prsn', 'psl', 'pr', 'ps', 'hus50m', 'ta50m', 'ua100m', 'ua150m', 'ua200m']</t>
+          <t>['sfcWind', 'vas', 'uas', 'tas', 'hfss', 'hfls', 'huss', 'hurs', 'clt', 'rsds', 'rlds', 'rsus', 'rlus', 'prc', 'prsn', 'psl', 'pr', 'ps', 'zg100m', 'zg150m', 'va100m', 'va150m', 'va200m', 'va250m', 'va50m', 'va700', 'ua700', 'zg200m', 'zg250m', 'zg50m', 'zg200', 'zg500', 'zg700', 'zg850', 'zg925', 'hus50m', 'ua200m', 'ua100m', 'ua150m', 'ua250m', 'ua50m', 'ta50m']</t>
         </is>
       </c>
     </row>

--- a/esgf/euro-cordex-esgf.xlsx
+++ b/esgf/euro-cordex-esgf.xlsx
@@ -9742,7 +9742,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['sfcWind', 'vas', 'uas', 'tas', 'hfss', 'hfls', 'huss', 'hurs', 'clt', 'rsds', 'rlds', 'rsus', 'rlus', 'prc', 'prsn', 'psl', 'pr', 'ps', 'zg100m', 'zg150m', 'va100m', 'va150m', 'va200m', 'va250m', 'va50m', 'va700', 'ua700', 'zg200m', 'zg250m', 'zg50m', 'zg200', 'zg500', 'zg700', 'zg850', 'zg925', 'hus50m', 'ua200m', 'ua100m', 'ua150m', 'ua250m', 'ua50m', 'ta50m']</t>
+          <t>['sfcWind', 'vas', 'uas', 'tas', 'hfss', 'hfls', 'huss', 'hurs', 'clt', 'rsds', 'rlds', 'rsus', 'rlus', 'prc', 'prsn', 'psl', 'pr', 'ps', 'zg200m', 'zg250m', 'zg50m', 'zg200', 'zg500', 'zg700', 'zg850', 'zg925', 'hus50m', 'ua200m', 'ua100m', 'ua150m', 'ua250m', 'ua50m', 'ta50m', 'zg100m', 'zg150m', 'va100m', 'va150m', 'va200m', 'va250m', 'va50m', 'va700', 'ua700']</t>
         </is>
       </c>
     </row>
@@ -9806,7 +9806,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>['clh', 'clivi', 'hfss', 'hfls', 'clwvi', 'huss', 'evspsbl', 'cll', 'clm', 'hurs', 'clt', 'prhmax', 'lwp', 'mrfso', 'mrso', 'prc', 'mrros', 'prsn', 'mrro', 'pr', 'rldscs', 'rluscs', 'rlutcs', 'rlds', 'rlus', 'rlut', 'prw', 'psl', 'ps', 'rsdscs', 'rsuscs', 'rsutcs', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'tasmin', 'tauu', 'tasmax', 'snm', 'snw', 'tas', 'sic', 'snc', 'snd', 'tauv', 'vas', 'uas', 'ts']</t>
+          <t>['clh', 'clivi', 'hfss', 'hfls', 'clwvi', 'huss', 'evspsbl', 'cll', 'clm', 'hurs', 'clt', 'prhmax', 'lwp', 'mrfso', 'mrso', 'prc', 'mrros', 'prsn', 'mrro', 'pr', 'rldscs', 'rluscs', 'rlutcs', 'rlds', 'rlus', 'rlut', 'prw', 'psl', 'ps', 'rsdscs', 'rsuscs', 'rsutcs', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'tasmin', 'tauu', 'tasmax', 'snm', 'snw', 'tas', 'sic', 'snc', 'snd', 'tauv', 'vas', 'uas', 'ts', 'hus925', 'ta700', 'ta850', 'va500', 'va700', 'zg700', 'zg500', 'ta200', 'ta500', 'ta925', 'ua200', 'va925', 'zg200', 'zg850', 'zg925', 'hus500', 'hus200', 'hus850', 'hus700', 'ua700', 'ua850', 'ua500', 'va200', 'ua925', 'va850']</t>
         </is>
       </c>
     </row>
@@ -9870,7 +9870,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>['cdnctop', 'clh', 'cll', 'clivi', 'clt', 'hfss', 'hfls', 'huss', 'lwp', 'cltc100', 'evspsbl', 'lcod', 'icod', 'hurs', 'mrfso', 'mrso', 'prc', 'mrros', 'prw', 'prsn', 'mrro', 'ps', 'pr', 'rldscs', 'rluscs', 'reffclwtop', 'rlutcs', 'rsds', 'rlds', 'rlus', 'rlut', 'psl', 'rsdscs', 'rsuscs', 'rsutcs', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'sic', 'tasmax', 'tasmin', 'snm', 'uas', 'snw', 'tas', 'snc', 'snd', 'ts', 'vas']</t>
+          <t>['cdnctop', 'clh', 'cll', 'clivi', 'clt', 'hfss', 'hfls', 'huss', 'lwp', 'cltc100', 'evspsbl', 'lcod', 'icod', 'hurs', 'mrfso', 'mrso', 'prc', 'mrros', 'prw', 'prsn', 'mrro', 'ps', 'pr', 'rldscs', 'rluscs', 'reffclwtop', 'rlutcs', 'rsds', 'rlds', 'rlus', 'rlut', 'psl', 'rsdscs', 'rsuscs', 'rsutcs', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'sic', 'tasmax', 'tasmin', 'snm', 'uas', 'snw', 'tas', 'snc', 'snd', 'ts', 'vas', 'cdnc700', 'cdnc850', 'hur200', 'cdnc925', 'hus700', 'hus850', 'hus925', 'ta850', 'ta700', 'va200', 'va500', 'wap700', 'wap500', 'zg850', 'zg925', 'zg700', 'hur850', 'hur925', 'hus200', 'hus500', 'ua500', 'ua700', 'ua850', 'ua925', 'va850', 'va700', 'zg500', 'zg200', 'cdnc500', 'cdnc200', 'hur500', 'hur700', 'ta200', 'ta500', 'ta925', 'ua200', 'va925', 'wap200', 'wap850', 'wap925']</t>
         </is>
       </c>
     </row>

--- a/esgf/euro-cordex-esgf.xlsx
+++ b/esgf/euro-cordex-esgf.xlsx
@@ -25990,7 +25990,7 @@
       </c>
       <c r="J789" t="inlineStr">
         <is>
-          <t>['clwvi', 'clh', 'clivi', 'cll', 'clm', 'hus200', 'hus300', 'zmla', 'tauv', 'tauu', 'ua200', 'ua300', 'ta600', 'ta700', 'ta850', 'ta925', 'ts', 'rsdt', 'rlut', 'prw', 'snm', 'snw', 'ta200', 'ta300', 'ta400', 'ta500', 'vas', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'uas', 'va200', 'va300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'mrso', 'mrros', 'hus500', 'hus400', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925']</t>
+          <t>['clwvi', 'clh', 'clivi', 'cll', 'clm', 'hus200', 'hus300', 'zmla', 'tauv', 'tauu', 'ua200', 'ua300', 'ta600', 'ta700', 'ta850', 'ta925', 'ts', 'rsdt', 'rlut', 'prw', 'snm', 'snw', 'ta200', 'ta300', 'ta400', 'ta500', 'vas', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'uas', 'va200', 'va300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'mrso', 'mrros', 'hus500', 'hus400', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zg200', 'zg300']</t>
         </is>
       </c>
     </row>

--- a/esgf/euro-cordex-esgf.xlsx
+++ b/esgf/euro-cordex-esgf.xlsx
@@ -9486,7 +9486,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'clt', 'huss', 'ps', 'prsn', 'rlds', 'rlus', 'prc', 'hurs', 'psl', 'pr', 'rsds', 'sfcWind', 'vas', 'rsus', 'uas', 'tas', 'ua50m', 'ua250m', 'va700', 'va50m', 'hus50m', 'ta50m', 'ua100m', 'ua700', 'va100m', 'zg150m', 'zg100m', 'ua200m', 'ua150m', 'va150m', 'va200m', 'va250m', 'zg200', 'zg200m', 'zg250m', 'zg50m', 'zg700', 'zg500', 'zg850', 'zg925']</t>
+          <t>['ua50m', 'ua250m', 'va700', 'va50m', 'hus50m', 'ta50m', 'ua100m', 'ua700', 'va100m', 'zg150m', 'zg100m', 'ua200m', 'ua150m', 'va150m', 'va200m', 'va250m', 'zg200', 'zg200m', 'zg250m', 'zg50m', 'zg700', 'zg500', 'zg850', 'zg925', 'hfss', 'hfls', 'clt', 'huss', 'ps', 'prsn', 'rlds', 'rlus', 'prc', 'hurs', 'psl', 'pr', 'rsds', 'sfcWind', 'vas', 'rsus', 'uas', 'tas']</t>
         </is>
       </c>
     </row>
@@ -10010,7 +10010,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'huss', 'lwp', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prsn', 'prw', 'ps', 'psl', 'rlds', 'rldscs', 'rlus', 'rluscs', 'rlut', 'rlutcs', 'rsds', 'rsdscs', 'rsdt', 'rsus', 'rsuscs', 'rsut', 'rsutcs', 'sfcWind', 'snc', 'snd', 'snm', 'snw', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'uas', 'vas', 'sfcWindmax', 'zg500', 'zg850', 'zg925', 'zg700', 'zg200', 'va500', 'va200', 'va700', 'va850', 'va925', 'ua700', 'ua850', 'ua925', 'hus850', 'hus925', 'ua200', 'ua500', 'ta200', 'ta500', 'ta700', 'ta850', 'ta925', 'hus200', 'hus500', 'hus700']</t>
+          <t>['zg500', 'zg850', 'zg925', 'zg700', 'zg200', 'va500', 'va200', 'va700', 'va850', 'va925', 'ua700', 'ua850', 'ua925', 'hus850', 'hus925', 'ua200', 'ua500', 'ta200', 'ta500', 'ta700', 'ta850', 'ta925', 'hus200', 'hus500', 'hus700', 'clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'huss', 'lwp', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prsn', 'prw', 'ps', 'psl', 'rlds', 'rldscs', 'rlus', 'rluscs', 'rlut', 'rlutcs', 'rsds', 'rsdscs', 'rsdt', 'rsus', 'rsuscs', 'rsut', 'rsutcs', 'sfcWind', 'snc', 'snd', 'snm', 'snw', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'uas', 'vas', 'sfcWindmax']</t>
         </is>
       </c>
     </row>
@@ -10098,7 +10098,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>['cdnctop', 'clh', 'clivi', 'cll', 'clt', 'cltc100', 'evspsbl', 'hfls', 'hfss', 'hurs', 'huss', 'icod', 'lcod', 'lwp', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prsn', 'prw', 'ps', 'psl', 'reffclwtop', 'rlds', 'rldscs', 'rlus', 'rluscs', 'rlut', 'rlutcs', 'rsds', 'rsdscs', 'rsdt', 'rsus', 'rsuscs', 'rsut', 'rsutcs', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'snw', 'tas', 'tasmax', 'tasmin', 'ts', 'uas', 'vas', 'hus200', 'hus500', 'hus700', 'hus850', 'hus925', 'ta200', 'ta500', 'ta700', 'ta850', 'hur850', 'hur200', 'hur500', 'hur700', 'hur925', 'va500', 'va200', 'va700', 'ua200', 'ua500', 'ua700', 'ua850', 'ua925', 'ta925', 'zg200', 'zg500', 'zg850', 'zg925', 'zg700', 'va850', 'va925']</t>
+          <t>['hus200', 'hus500', 'hus700', 'hus850', 'hus925', 'ta200', 'ta500', 'ta700', 'ta850', 'hur850', 'hur200', 'hur500', 'hur700', 'hur925', 'va500', 'va200', 'va700', 'ua200', 'ua500', 'ua700', 'ua850', 'ua925', 'ta925', 'zg200', 'zg500', 'zg850', 'zg925', 'zg700', 'va850', 'va925', 'cdnctop', 'clh', 'clivi', 'cll', 'clt', 'cltc100', 'evspsbl', 'hfls', 'hfss', 'hurs', 'huss', 'icod', 'lcod', 'lwp', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prsn', 'prw', 'ps', 'psl', 'reffclwtop', 'rlds', 'rldscs', 'rlus', 'rluscs', 'rlut', 'rlutcs', 'rsds', 'rsdscs', 'rsdt', 'rsus', 'rsuscs', 'rsut', 'rsutcs', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'snw', 'tas', 'tasmax', 'tasmin', 'ts', 'uas', 'vas']</t>
         </is>
       </c>
     </row>

--- a/esgf/euro-cordex-esgf.xlsx
+++ b/esgf/euro-cordex-esgf.xlsx
@@ -12510,7 +12510,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>['pr', 'hfss', 'hfls', 'rsus', 'rlds', 'rlus']</t>
+          <t>['pr', 'hfss', 'hfls', 'rsus', 'rlds', 'rlus', 'rsds']</t>
         </is>
       </c>
     </row>
@@ -16450,7 +16450,7 @@
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>['hurs', 'huss', 'pr', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas', 'hfls', 'hfss']</t>
+          <t>['ps', 'hfls', 'hfss', 'hurs', 'huss', 'pr', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -17422,7 +17422,7 @@
       </c>
       <c r="J530" t="inlineStr">
         <is>
-          <t>['vas', 'uas']</t>
+          <t>['uas', 'vas']</t>
         </is>
       </c>
     </row>
@@ -17590,7 +17590,7 @@
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>['tas', 'hfls', 'hfss', 'hurs', 'huss', 'pr', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind']</t>
+          <t>['hfls', 'hfss', 'hurs', 'huss', 'pr', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>

--- a/esgf/euro-cordex-esgf.xlsx
+++ b/esgf/euro-cordex-esgf.xlsx
@@ -16450,7 +16450,7 @@
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>['ps', 'hfls', 'hfss', 'hurs', 'huss', 'pr', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
+          <t>['hfls', 'hfss', 'hurs', 'huss', 'pr', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas', 'ps']</t>
         </is>
       </c>
     </row>
@@ -16650,7 +16650,7 @@
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>['hfls', 'hfss', 'hurs', 'huss', 'pr', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
+          <t>['rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas', 'hfls', 'hfss', 'hurs', 'huss', 'pr', 'ps', 'psl']</t>
         </is>
       </c>
     </row>
@@ -16882,7 +16882,7 @@
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>['hfls', 'hurs', 'huss', 'pr', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
+          <t>['sfcWind', 'tas', 'hfls', 'hurs', 'huss', 'pr', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus']</t>
         </is>
       </c>
     </row>
